--- a/Bibliography/Sources.xlsx
+++ b/Bibliography/Sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goutm\Desktop\Thesis\Literature Review\Bibliography\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goutm\Desktop\Thesis\Bibliography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646C391-E0CE-44CC-A0A6-B68E2DC2FC52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0CC709-99CB-48D8-8486-97AED116C6CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{2ADE54EB-EE61-42A7-99A6-06DEA044BA3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{2ADE54EB-EE61-42A7-99A6-06DEA044BA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Reviewed Works" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Bibliograhy" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Regression Outputs'!$Z$14:$AC$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Regression Outputs'!$Z$4:$AB$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reviewed Works'!$A$1:$H$21</definedName>
     <definedName name="citation" localSheetId="0">'Reviewed Works'!$A$13</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="451">
   <si>
     <t>Authors</t>
   </si>
@@ -1937,132 +1937,12 @@
     <t>Adjusted</t>
   </si>
   <si>
-    <t>-------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>=========================================================================</t>
-  </si>
-  <si>
-    <t>majority_white</t>
-  </si>
-  <si>
-    <t>-0.051***</t>
-  </si>
-  <si>
-    <t>white_25</t>
-  </si>
-  <si>
-    <t>-0.096***</t>
-  </si>
-  <si>
-    <t>percent_population_white</t>
-  </si>
-  <si>
     <t>-0.159***</t>
   </si>
   <si>
-    <t>0.158***</t>
-  </si>
-  <si>
-    <t>0.155***</t>
-  </si>
-  <si>
-    <t>0.070***</t>
-  </si>
-  <si>
-    <t>-0.365***</t>
-  </si>
-  <si>
-    <t>-0.356***</t>
-  </si>
-  <si>
-    <t>-0.349***</t>
-  </si>
-  <si>
-    <t>1.611***</t>
-  </si>
-  <si>
-    <t>1.624***</t>
-  </si>
-  <si>
-    <t>-0.098***</t>
-  </si>
-  <si>
     <t>-0.100***</t>
   </si>
   <si>
-    <t>-0.161***</t>
-  </si>
-  <si>
-    <t>0.175***</t>
-  </si>
-  <si>
-    <t>0.163***</t>
-  </si>
-  <si>
-    <t>0.090*</t>
-  </si>
-  <si>
-    <t>0.328***</t>
-  </si>
-  <si>
-    <t>0.338***</t>
-  </si>
-  <si>
-    <t>0.349***</t>
-  </si>
-  <si>
-    <t>-0.245***</t>
-  </si>
-  <si>
-    <t>-0.226***</t>
-  </si>
-  <si>
-    <t>-0.319***</t>
-  </si>
-  <si>
-    <t>-0.395***</t>
-  </si>
-  <si>
-    <t>-0.380***</t>
-  </si>
-  <si>
-    <t>-0.485***</t>
-  </si>
-  <si>
-    <t>-0.488***</t>
-  </si>
-  <si>
-    <t>-0.287***</t>
-  </si>
-  <si>
-    <t>-0.285***</t>
-  </si>
-  <si>
-    <t>-0.280***</t>
-  </si>
-  <si>
-    <t>0.137***</t>
-  </si>
-  <si>
-    <t>0.138***</t>
-  </si>
-  <si>
-    <t>0.104***</t>
-  </si>
-  <si>
-    <t>-0.014***</t>
-  </si>
-  <si>
-    <t>0.255***</t>
-  </si>
-  <si>
-    <t>0.249***</t>
-  </si>
-  <si>
-    <t>0.240***</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -2075,25 +1955,142 @@
     <t>21;</t>
   </si>
   <si>
-    <t>64959)</t>
-  </si>
-  <si>
-    <t>4,764.763***</t>
-  </si>
-  <si>
-    <t>4,779.220***</t>
-  </si>
-  <si>
-    <t>4,790.227***</t>
-  </si>
-  <si>
-    <t>*p&lt;0.1;</t>
-  </si>
-  <si>
-    <t>**p&lt;0.05;</t>
-  </si>
-  <si>
-    <t>***p&lt;0.01</t>
+    <t>----------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>majority_black</t>
+  </si>
+  <si>
+    <t>0.164***</t>
+  </si>
+  <si>
+    <t>0.135***</t>
+  </si>
+  <si>
+    <t>-0.00005***</t>
+  </si>
+  <si>
+    <t>0.279***</t>
+  </si>
+  <si>
+    <t>0.286***</t>
+  </si>
+  <si>
+    <t>0.050***</t>
+  </si>
+  <si>
+    <t>0.051***</t>
+  </si>
+  <si>
+    <t>-0.008***</t>
+  </si>
+  <si>
+    <t>-0.007***</t>
+  </si>
+  <si>
+    <t>-0.670***</t>
+  </si>
+  <si>
+    <t>-0.622***</t>
+  </si>
+  <si>
+    <t>-0.006***</t>
+  </si>
+  <si>
+    <t>0.911***</t>
+  </si>
+  <si>
+    <t>0.894***</t>
+  </si>
+  <si>
+    <t>0.193***</t>
+  </si>
+  <si>
+    <t>0.494***</t>
+  </si>
+  <si>
+    <t>0.418***</t>
+  </si>
+  <si>
+    <t>-0.159*</t>
+  </si>
+  <si>
+    <t>-0.215**</t>
+  </si>
+  <si>
+    <t>-0.253***</t>
+  </si>
+  <si>
+    <t>-0.181***</t>
+  </si>
+  <si>
+    <t>-0.490***</t>
+  </si>
+  <si>
+    <t>-0.397***</t>
+  </si>
+  <si>
+    <t>-0.212***</t>
+  </si>
+  <si>
+    <t>-0.123***</t>
+  </si>
+  <si>
+    <t>-0.110***</t>
+  </si>
+  <si>
+    <t>-0.012**</t>
+  </si>
+  <si>
+    <t>0.178***</t>
+  </si>
+  <si>
+    <t>0.159***</t>
+  </si>
+  <si>
+    <t>Bachelors_rate</t>
+  </si>
+  <si>
+    <t>vacantcy</t>
+  </si>
+  <si>
+    <t>0.120***</t>
+  </si>
+  <si>
+    <t>Unemployment_rate</t>
+  </si>
+  <si>
+    <t>0.270***</t>
+  </si>
+  <si>
+    <t>Percent_snap</t>
+  </si>
+  <si>
+    <t>Rental_rate</t>
+  </si>
+  <si>
+    <t>-0.045***</t>
+  </si>
+  <si>
+    <t>Uninsured_rate</t>
+  </si>
+  <si>
+    <t>0.202***</t>
+  </si>
+  <si>
+    <t>3,826.910***</t>
+  </si>
+  <si>
+    <t>65359)</t>
+  </si>
+  <si>
+    <t>3,247.107***</t>
+  </si>
+  <si>
+    <t>27;</t>
+  </si>
+  <si>
+    <t>64617)</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2460,6 +2457,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -14538,10 +14536,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C15DF64-6BD6-4B09-9ED1-8DC12396CBB2}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:AH82"/>
+  <dimension ref="B2:AK89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10:AC74"/>
+    <sheetView tabSelected="1" topLeftCell="R53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AB83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14562,13 +14560,11 @@
     <col min="21" max="21" width="33.796875" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
     <col min="23" max="23" width="12.3984375" customWidth="1"/>
-    <col min="26" max="26" width="11.59765625" customWidth="1"/>
-    <col min="27" max="27" width="12.59765625" customWidth="1"/>
-    <col min="28" max="28" width="12.3984375" customWidth="1"/>
-    <col min="29" max="29" width="10.796875" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -14586,9 +14582,8 @@
       <c r="U2" s="15"/>
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
-      <c r="Z2" s="30"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="42" t="s">
         <v>236</v>
       </c>
@@ -14614,9 +14609,8 @@
       </c>
       <c r="V3" s="43"/>
       <c r="W3" s="44"/>
-      <c r="Z3" s="30"/>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
         <v>235</v>
       </c>
@@ -14667,9 +14661,17 @@
       <c r="W4" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="Z4" s="30"/>
-    </row>
-    <row r="5" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z4" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
       <c r="C5" s="39">
         <v>-1</v>
@@ -14713,8 +14715,14 @@
         <v>-7</v>
       </c>
       <c r="Z5" s="30"/>
-    </row>
-    <row r="6" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+      <c r="AA5" s="17">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>237</v>
       </c>
@@ -14764,8 +14772,10 @@
         <v>346</v>
       </c>
       <c r="Z6" s="30"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B7" s="40"/>
       <c r="C7" s="17">
         <v>-0.01</v>
@@ -14806,8 +14816,17 @@
       <c r="W7" s="17">
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+      <c r="Z7" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>141</v>
       </c>
@@ -14854,8 +14873,15 @@
       <c r="W8" s="51" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17">
@@ -14894,8 +14920,11 @@
       <c r="W9" s="17">
         <v>-1E-4</v>
       </c>
-    </row>
-    <row r="10" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+    </row>
+    <row r="10" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>143</v>
       </c>
@@ -14945,13 +14974,16 @@
         <v>271</v>
       </c>
       <c r="Z10" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" s="40"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17">
@@ -14992,11 +15024,15 @@
       <c r="W11" s="17">
         <v>-3.0000000000000001E-5</v>
       </c>
-      <c r="AA11" s="30">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="17">
+        <v>-1E-4</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>149</v>
       </c>
@@ -15045,14 +15081,11 @@
       <c r="W12" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="Z12" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B13" s="40"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17">
@@ -15093,11 +15126,17 @@
       <c r="W13" s="17">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="AB13" s="30">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+      <c r="Z13" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA13" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB13" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>154</v>
       </c>
@@ -15146,16 +15185,15 @@
       <c r="W14" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="Z14" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="17">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17">
@@ -15196,13 +15234,11 @@
       <c r="W15" s="17">
         <v>-2.9999999999999997E-4</v>
       </c>
+      <c r="Z15" s="30"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
-      <c r="AC15" s="17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>166</v>
       </c>
@@ -15252,19 +15288,16 @@
         <v>315</v>
       </c>
       <c r="Z16" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC16" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17">
@@ -15307,16 +15340,13 @@
       </c>
       <c r="Z17" s="30"/>
       <c r="AA17" s="17">
-        <v>-1E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="AB17" s="17">
-        <v>-1E-4</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" ht="16" hidden="1" x14ac:dyDescent="0.3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>145</v>
       </c>
@@ -15368,9 +15398,8 @@
       <c r="Z18" s="30"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="40"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17">
@@ -15412,19 +15441,16 @@
         <v>-2E-3</v>
       </c>
       <c r="Z19" s="30" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AA19" s="17" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>146</v>
       </c>
@@ -15480,11 +15506,8 @@
       <c r="AB20" s="17">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="AC20" s="17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="40"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17">
@@ -15528,9 +15551,8 @@
       <c r="Z21" s="30"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-    </row>
-    <row r="22" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>152</v>
       </c>
@@ -15580,19 +15602,16 @@
         <v>354</v>
       </c>
       <c r="Z22" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC22" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="40"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17">
@@ -15635,16 +15654,13 @@
       </c>
       <c r="Z23" s="30"/>
       <c r="AA23" s="17">
-        <v>-0.01</v>
+        <v>-2E-3</v>
       </c>
       <c r="AB23" s="17">
-        <v>-0.01</v>
-      </c>
-      <c r="AC23" s="17">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" ht="16" hidden="1" x14ac:dyDescent="0.3">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
         <v>148</v>
       </c>
@@ -15692,11 +15708,10 @@
       </c>
       <c r="W24" s="17"/>
       <c r="Z24" s="30"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17">
@@ -15736,19 +15751,16 @@
       </c>
       <c r="W25" s="17"/>
       <c r="Z25" s="30" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AA25" s="17" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="AB25" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
         <v>153</v>
       </c>
@@ -15799,16 +15811,13 @@
       </c>
       <c r="Z26" s="30"/>
       <c r="AA26" s="17">
-        <v>-2.9999999999999997E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="AB26" s="17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="AC26" s="17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17">
@@ -15852,9 +15861,8 @@
       <c r="Z27" s="30"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-    </row>
-    <row r="28" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
         <v>161</v>
       </c>
@@ -15904,19 +15912,16 @@
         <v>357</v>
       </c>
       <c r="Z28" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA28" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB28" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC28" s="51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="40"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17">
@@ -15959,16 +15964,13 @@
       </c>
       <c r="Z29" s="30"/>
       <c r="AA29" s="17">
-        <v>-2.9999999999999997E-4</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="AB29" s="17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="AC29" s="17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" ht="16" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
         <v>163</v>
       </c>
@@ -16020,9 +16022,8 @@
       <c r="Z30" s="30"/>
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="40"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17">
@@ -16064,19 +16065,16 @@
         <v>-4.3999999999999997E-2</v>
       </c>
       <c r="Z31" s="30" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AA31" s="17" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AB31" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC31" s="17" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
         <v>164</v>
       </c>
@@ -16127,16 +16125,13 @@
       </c>
       <c r="Z32" s="30"/>
       <c r="AA32" s="17">
-        <v>-2E-3</v>
+        <v>-1E-4</v>
       </c>
       <c r="AB32" s="17">
-        <v>-2E-3</v>
-      </c>
-      <c r="AC32" s="17">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="40"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17">
@@ -16180,9 +16175,8 @@
       <c r="Z33" s="30"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-    </row>
-    <row r="34" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
         <v>162</v>
       </c>
@@ -16232,19 +16226,16 @@
         <v>375</v>
       </c>
       <c r="Z34" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="AB34" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC34" s="17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="40"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17">
@@ -16287,16 +16278,13 @@
       </c>
       <c r="Z35" s="30"/>
       <c r="AA35" s="17">
-        <v>-1E-3</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="AB35" s="17">
-        <v>-1E-3</v>
-      </c>
-      <c r="AC35" s="17">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" ht="16" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="15" t="s">
         <v>176</v>
       </c>
@@ -16346,9 +16334,8 @@
       <c r="Z36" s="30"/>
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="40"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -16388,19 +16375,16 @@
         <v>-1.2E-2</v>
       </c>
       <c r="Z37" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA37" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB37" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="AC37" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="AA37" s="17">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AB37" s="17">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
         <v>151</v>
       </c>
@@ -16454,11 +16438,8 @@
       <c r="AB38" s="17">
         <v>-1.2E-2</v>
       </c>
-      <c r="AC38" s="17">
-        <v>-1.2E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -16500,9 +16481,8 @@
       <c r="Z39" s="30"/>
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-    </row>
-    <row r="40" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B40" s="15" t="s">
         <v>150</v>
       </c>
@@ -16550,19 +16530,16 @@
         <v>366</v>
       </c>
       <c r="Z40" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AA40" s="17" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="AB40" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC40" s="17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="40"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -16602,17 +16579,14 @@
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="Z41" s="30"/>
-      <c r="AA41" s="51">
-        <v>-1E-4</v>
-      </c>
-      <c r="AB41" s="51">
-        <v>-1E-4</v>
-      </c>
-      <c r="AC41" s="51">
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" ht="16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AA41" s="17">
+        <v>-0.06</v>
+      </c>
+      <c r="AB41" s="17">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="15" t="s">
         <v>167</v>
       </c>
@@ -16662,9 +16636,8 @@
       <c r="Z42" s="30"/>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -16704,19 +16677,16 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="Z43" s="30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="AB43" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC43" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="s">
         <v>158</v>
       </c>
@@ -16765,16 +16735,13 @@
       </c>
       <c r="Z44" s="30"/>
       <c r="AA44" s="17">
-        <v>-1.2999999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="AB44" s="17">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="AC44" s="17">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="40"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -16814,11 +16781,10 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="Z45" s="30"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
-      <c r="AC45" s="51"/>
-    </row>
-    <row r="46" spans="2:29" ht="16" x14ac:dyDescent="0.3">
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+    </row>
+    <row r="46" spans="2:28" ht="16" x14ac:dyDescent="0.3">
       <c r="B46" s="15" t="s">
         <v>165</v>
       </c>
@@ -16866,19 +16832,16 @@
         <v>371</v>
       </c>
       <c r="Z46" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AA46" s="17" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="AB46" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC46" s="17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="40"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -16919,16 +16882,13 @@
       </c>
       <c r="Z47" s="30"/>
       <c r="AA47" s="17">
-        <v>-1.2E-2</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="AB47" s="17">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="AC47" s="17">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" ht="16" hidden="1" x14ac:dyDescent="0.3">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="15" t="s">
         <v>128</v>
       </c>
@@ -16980,9 +16940,8 @@
       <c r="Z48" s="30"/>
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
-    </row>
-    <row r="49" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="36"/>
       <c r="C49" s="36">
         <v>-2E-3</v>
@@ -17028,19 +16987,16 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="Z49" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AA49" s="17" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AB49" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC49" s="17" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="50" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>129</v>
       </c>
@@ -17093,16 +17049,13 @@
       </c>
       <c r="Z50" s="30"/>
       <c r="AA50" s="17">
-        <v>-5.3999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="AB50" s="17">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="AC50" s="17">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:29" ht="16" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" ht="16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="15" t="s">
         <v>130</v>
       </c>
@@ -17144,9 +17097,8 @@
       <c r="Z51" s="30"/>
       <c r="AA51" s="17"/>
       <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-    </row>
-    <row r="52" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="38" t="s">
         <v>131</v>
       </c>
@@ -17174,19 +17126,16 @@
         <v>0.58799999999999997</v>
       </c>
       <c r="Z52" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AA52" s="17" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AB52" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC52" s="17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
         <v>132</v>
       </c>
@@ -17205,16 +17154,13 @@
       <c r="R53" s="50"/>
       <c r="Z53" s="30"/>
       <c r="AA53" s="17">
-        <v>-8.9999999999999993E-3</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="AB53" s="17">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="AC53" s="17">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.9E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
@@ -17236,9 +17182,8 @@
       <c r="Z54" s="30"/>
       <c r="AA54" s="17"/>
       <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
@@ -17258,19 +17203,16 @@
       <c r="V55" s="32"/>
       <c r="W55" s="32"/>
       <c r="Z55" s="30" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AA55" s="17" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AB55" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC55" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
@@ -17289,333 +17231,302 @@
       <c r="U56" s="32"/>
       <c r="Z56" s="30"/>
       <c r="AA56" s="17">
-        <v>-0.08</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="AB56" s="17">
-        <v>-0.08</v>
-      </c>
-      <c r="AC56" s="17">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="57" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="O57" s="30"/>
       <c r="Z57" s="30"/>
       <c r="AA57" s="17"/>
       <c r="AB57" s="17"/>
-      <c r="AC57" s="17"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
       <c r="O58" s="30"/>
       <c r="Z58" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA58" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB58" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC58" s="51" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="AA58" s="17">
+        <v>-0.04</v>
+      </c>
+      <c r="AB58" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
       <c r="O59" s="30"/>
       <c r="Z59" s="30"/>
       <c r="AA59" s="17">
-        <v>-1.6E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="AB59" s="17">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="AC59" s="17">
-        <v>-1.6E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="O60" s="30"/>
       <c r="Z60" s="30"/>
       <c r="AA60" s="17"/>
       <c r="AB60" s="17"/>
-      <c r="AC60" s="17"/>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
       <c r="O61" s="30"/>
       <c r="Z61" s="30" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AA61" s="17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AB61" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC61" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
       <c r="O62" s="30"/>
       <c r="Z62" s="30"/>
-      <c r="AA62" s="51">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="AB62" s="51">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="AC62" s="51">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AA62" s="17">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AB62" s="17">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="O63" s="30"/>
       <c r="Z63" s="30"/>
       <c r="AA63" s="17"/>
       <c r="AB63" s="17"/>
-      <c r="AC63" s="17"/>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
       <c r="O64" s="30"/>
       <c r="Z64" s="30" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AA64" s="17" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AB64" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC64" s="17" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="65" spans="15:34" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="15:28" x14ac:dyDescent="0.3">
       <c r="O65" s="30"/>
       <c r="Z65" s="30"/>
       <c r="AA65" s="17">
-        <v>-1.9E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="AB65" s="17">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="AC65" s="17">
-        <v>-1.9E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="15:34" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="15:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="O66" s="31"/>
       <c r="Z66" s="30"/>
       <c r="AA66" s="17"/>
       <c r="AB66" s="17"/>
-      <c r="AC66" s="17"/>
-    </row>
-    <row r="67" spans="15:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="15:28" x14ac:dyDescent="0.3">
       <c r="Z67" s="30" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="AA67" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="AB67" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC67" s="17" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="68" spans="15:34" x14ac:dyDescent="0.3">
-      <c r="Z68" s="30"/>
+        <v>399</v>
+      </c>
+      <c r="AB67" s="17"/>
+    </row>
+    <row r="68" spans="15:28" x14ac:dyDescent="0.3">
       <c r="AA68" s="17">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="AB68" s="17">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="AC68" s="17">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="15:34" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="AB68" s="17"/>
+    </row>
+    <row r="69" spans="15:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="Z69" s="30"/>
       <c r="AA69" s="17"/>
       <c r="AB69" s="17"/>
-      <c r="AC69" s="17"/>
-    </row>
-    <row r="70" spans="15:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="15:28" x14ac:dyDescent="0.3">
       <c r="Z70" s="30" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="AA70" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB70" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC70" s="17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="71" spans="15:34" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="AB70" s="17"/>
+    </row>
+    <row r="71" spans="15:28" x14ac:dyDescent="0.3">
       <c r="O71" t="s">
         <v>341</v>
       </c>
-      <c r="Z71" s="30"/>
       <c r="AA71" s="17">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="AB71" s="17">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="AC71" s="17">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="15:34" hidden="1" x14ac:dyDescent="0.3">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="AB71" s="17"/>
+    </row>
+    <row r="72" spans="15:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="Z72" s="30"/>
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
-      <c r="AC72" s="17"/>
-    </row>
-    <row r="73" spans="15:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="15:28" x14ac:dyDescent="0.3">
       <c r="Z73" s="30" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="AA73" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB73" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="AC73" s="17" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="74" spans="15:34" x14ac:dyDescent="0.3">
-      <c r="Z74" s="30"/>
+      <c r="AB73" s="17"/>
+    </row>
+    <row r="74" spans="15:28" x14ac:dyDescent="0.3">
       <c r="AA74" s="17">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="AB74" s="17">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="AC74" s="17">
-        <v>-1.4E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="15:34" x14ac:dyDescent="0.3">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="AB74" s="17"/>
+    </row>
+    <row r="75" spans="15:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="Z75" s="30"/>
-      <c r="AA75" s="51"/>
-      <c r="AB75" s="51"/>
-      <c r="AC75" s="51"/>
-    </row>
-    <row r="76" spans="15:34" x14ac:dyDescent="0.3">
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="17"/>
+    </row>
+    <row r="76" spans="15:28" x14ac:dyDescent="0.3">
       <c r="Z76" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA76" s="17"/>
+        <v>441</v>
+      </c>
+      <c r="AA76" s="17" t="s">
+        <v>314</v>
+      </c>
       <c r="AB76" s="17"/>
-      <c r="AC76" s="17"/>
-    </row>
-    <row r="77" spans="15:34" x14ac:dyDescent="0.3">
-      <c r="Z77" s="30" t="s">
-        <v>129</v>
-      </c>
+    </row>
+    <row r="77" spans="15:28" x14ac:dyDescent="0.3">
       <c r="AA77" s="17">
-        <v>68139</v>
-      </c>
-      <c r="AB77" s="17">
-        <v>68139</v>
-      </c>
-      <c r="AC77" s="17">
-        <v>68139</v>
-      </c>
-    </row>
-    <row r="78" spans="15:34" x14ac:dyDescent="0.3">
-      <c r="Z78" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA78" s="17">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="AB78" s="17">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="AC78" s="17">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="15:34" x14ac:dyDescent="0.3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="AB77" s="17"/>
+    </row>
+    <row r="78" spans="15:28" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="17"/>
+    </row>
+    <row r="79" spans="15:28" x14ac:dyDescent="0.3">
       <c r="Z79" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA79" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="AB79" s="51">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="AC79" s="51">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="AD79">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="15:34" x14ac:dyDescent="0.3">
-      <c r="Z80" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA80" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="AB80" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC80" s="17" t="s">
+      <c r="AA79" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="AD80" t="s">
-        <v>444</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>445</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>446</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>447</v>
-      </c>
-      <c r="AH80" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="Z81" s="30" t="s">
-        <v>400</v>
-      </c>
+      <c r="AB79" s="17"/>
+    </row>
+    <row r="80" spans="15:28" x14ac:dyDescent="0.3">
+      <c r="AA80" s="17">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="AB80" s="17"/>
+    </row>
+    <row r="81" spans="26:37" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z81" s="30"/>
       <c r="AA81" s="17"/>
       <c r="AB81" s="17"/>
-      <c r="AC81" s="17"/>
-    </row>
-    <row r="82" spans="26:29" x14ac:dyDescent="0.3">
-      <c r="Z82" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA82" t="s">
+    </row>
+    <row r="82" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z82" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA82" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB82" s="17"/>
+    </row>
+    <row r="83" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="AA83" s="17">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="AB83" s="17"/>
+    </row>
+    <row r="84" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z84" s="30"/>
+    </row>
+    <row r="85" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z85" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z86" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA86" s="57">
+        <v>68540</v>
+      </c>
+      <c r="AB86" s="57">
+        <v>67726</v>
+      </c>
+    </row>
+    <row r="87" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z87" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA87">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AB87">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z88" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA88">
+        <v>0.53</v>
+      </c>
+      <c r="AB88">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="26:37" x14ac:dyDescent="0.3">
+      <c r="Z89" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ89" t="s">
         <v>449</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AK89" t="s">
         <v>450</v>
       </c>
-      <c r="AC82" t="s">
-        <v>451</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="Z14:AC74" xr:uid="{38EBA276-676E-4B67-89B0-E18188A4FD4B}">
-    <filterColumn colId="3">
+  <autoFilter ref="Z4:AB83" xr:uid="{B0E12579-E010-46B8-B12A-8EF26CD2DB20}">
+    <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
